--- a/app/data/tasks.xlsx
+++ b/app/data/tasks.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26101"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aspirin2d/Workspaces/task-manager/app/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aspirin2d\.babun\cygwin\home\aspirin2d\toolset\task-manager\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25520" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="75" yWindow="465" windowWidth="25515" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="1" r:id="rId1"/>
@@ -26,11 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
-  <si>
-    <t>uint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,10 +60,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>uint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>等级限制</t>
     <rPh sb="0" eb="1">
       <t>deng'ji</t>
@@ -142,10 +134,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>npc:npc_list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>type_list</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -310,10 +298,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>uint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>序列</t>
     <rPh sb="0" eb="1">
       <t>xu'lie</t>
@@ -360,13 +344,32 @@
   </si>
   <si>
     <t>task_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务3号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app/data/npc.xlsx:npc_list</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -415,6 +418,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -683,13 +689,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
@@ -701,90 +707,90 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
         <v>36</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -799,12 +805,12 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -819,12 +825,33 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -833,55 +860,56 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="35.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
         <v>35</v>
-      </c>
-      <c r="B1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>33</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -889,7 +917,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -897,7 +925,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -905,7 +933,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -913,7 +941,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -921,7 +949,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C10">
         <v>6</v>
@@ -929,7 +957,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C11">
         <v>7</v>
@@ -938,6 +966,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -946,55 +975,56 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="12.83203125" customWidth="1"/>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="3" max="3" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
         <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1002,7 +1032,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C6">
         <v>2</v>
